--- a/Code/Results/Cases/Case_9_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.372119845668067</v>
+        <v>2.361309200177232</v>
       </c>
       <c r="C2">
-        <v>0.6511858704207043</v>
+        <v>0.7669715284898473</v>
       </c>
       <c r="D2">
-        <v>0.02481785872352127</v>
+        <v>0.02962488354790693</v>
       </c>
       <c r="E2">
-        <v>0.2534939652292039</v>
+        <v>0.2436556990091532</v>
       </c>
       <c r="F2">
-        <v>1.091379654141591</v>
+        <v>0.889466966452261</v>
       </c>
       <c r="G2">
-        <v>1.046509376350471</v>
+        <v>0.794832455815083</v>
       </c>
       <c r="H2">
-        <v>0.0009126791377231935</v>
+        <v>0.0008894920150834817</v>
       </c>
       <c r="I2">
-        <v>0.001560769973611542</v>
+        <v>0.001771191531961591</v>
       </c>
       <c r="J2">
-        <v>0.6453604395251205</v>
+        <v>0.5745003151380388</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2162406059284017</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1150789327044137</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9360765914818572</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9613017826419394</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.064236148365069</v>
+        <v>2.058232194380423</v>
       </c>
       <c r="C3">
-        <v>0.574393205650324</v>
+        <v>0.6672791634138946</v>
       </c>
       <c r="D3">
-        <v>0.0241950228562402</v>
+        <v>0.02769877384604413</v>
       </c>
       <c r="E3">
-        <v>0.2227347610724308</v>
+        <v>0.2156166388839793</v>
       </c>
       <c r="F3">
-        <v>0.9870886295868075</v>
+        <v>0.8165645328583224</v>
       </c>
       <c r="G3">
-        <v>0.9438044149293034</v>
+        <v>0.7281922981432132</v>
       </c>
       <c r="H3">
-        <v>0.0001847249778594851</v>
+        <v>0.0002033711906652691</v>
       </c>
       <c r="I3">
-        <v>0.0006166928874078437</v>
+        <v>0.0008543683581438977</v>
       </c>
       <c r="J3">
-        <v>0.6019260973857428</v>
+        <v>0.5451148065578337</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2185872387708692</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.105560282983884</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8140745158998257</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8354084113884781</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.875243942207277</v>
+        <v>1.871918748927499</v>
       </c>
       <c r="C4">
-        <v>0.5277205870197861</v>
+        <v>0.6067998832979811</v>
       </c>
       <c r="D4">
-        <v>0.02380077141549641</v>
+        <v>0.02653000326837684</v>
       </c>
       <c r="E4">
-        <v>0.2038967783623278</v>
+        <v>0.1983977704916242</v>
       </c>
       <c r="F4">
-        <v>0.9236128561297079</v>
+        <v>0.7720321770441245</v>
       </c>
       <c r="G4">
-        <v>0.8811687457637163</v>
+        <v>0.6875895374390666</v>
       </c>
       <c r="H4">
-        <v>9.358598481501446E-06</v>
+        <v>1.926751954206551E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004291963943021671</v>
+        <v>0.0005839375922200851</v>
       </c>
       <c r="J4">
-        <v>0.5755497890005472</v>
+        <v>0.5269410256107108</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2198679973299882</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1003936012380464</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7394041532208178</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.758324632455917</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.79805971448215</v>
+        <v>1.79578388161562</v>
       </c>
       <c r="C5">
-        <v>0.509930254288804</v>
+        <v>0.5834182929883411</v>
       </c>
       <c r="D5">
-        <v>0.02366780927780354</v>
+        <v>0.02610787839939022</v>
       </c>
       <c r="E5">
-        <v>0.1961284380111934</v>
+        <v>0.1912931082682299</v>
       </c>
       <c r="F5">
-        <v>0.895899084908649</v>
+        <v>0.7523934626404269</v>
       </c>
       <c r="G5">
-        <v>0.853479095130794</v>
+        <v>0.6693939448850443</v>
       </c>
       <c r="H5">
-        <v>1.777113626033611E-06</v>
+        <v>7.421691683440201E-08</v>
       </c>
       <c r="I5">
-        <v>0.0005101400291049885</v>
+        <v>0.000619864990321517</v>
       </c>
       <c r="J5">
-        <v>0.5637124067623773</v>
+        <v>0.5185911840185469</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2198525993035574</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09812291105749438</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7092468539064001</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7271506844016429</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.785049323690629</v>
+        <v>1.782967507154694</v>
       </c>
       <c r="C6">
-        <v>0.5083596489938316</v>
+        <v>0.5808885882566415</v>
       </c>
       <c r="D6">
-        <v>0.02368376433448205</v>
+        <v>0.02610083472780289</v>
       </c>
       <c r="E6">
-        <v>0.194718918826208</v>
+        <v>0.1900118180382471</v>
       </c>
       <c r="F6">
-        <v>0.8889026068328718</v>
+        <v>0.7472616459227126</v>
       </c>
       <c r="G6">
-        <v>0.846137644839132</v>
+        <v>0.664288702545619</v>
       </c>
       <c r="H6">
-        <v>4.355828436164444E-06</v>
+        <v>1.871727539626278E-07</v>
       </c>
       <c r="I6">
-        <v>0.0006164454388137841</v>
+        <v>0.0007334926392692509</v>
       </c>
       <c r="J6">
-        <v>0.5603429225983803</v>
+        <v>0.5160945147595726</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2192429562189275</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09735093042474574</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7045162362660378</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.722215830423238</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.873671973382756</v>
+        <v>1.8704112015254</v>
       </c>
       <c r="C7">
-        <v>0.5312511510908848</v>
+        <v>0.6096422098032122</v>
       </c>
       <c r="D7">
-        <v>0.02390360746417564</v>
+        <v>0.02680254845355989</v>
       </c>
       <c r="E7">
-        <v>0.2034634678028553</v>
+        <v>0.1980114006372489</v>
       </c>
       <c r="F7">
-        <v>0.9166664093377932</v>
+        <v>0.7637706097124664</v>
       </c>
       <c r="G7">
-        <v>0.8732706750681416</v>
+        <v>0.6843512686700421</v>
       </c>
       <c r="H7">
-        <v>8.689597121414039E-06</v>
+        <v>1.811212800295614E-05</v>
       </c>
       <c r="I7">
-        <v>0.0006514011653226959</v>
+        <v>0.0008468716461100811</v>
       </c>
       <c r="J7">
-        <v>0.5715402734642083</v>
+        <v>0.5158889031990554</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2175504785094482</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09873983331003089</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7397487785564678</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7584661062487825</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.265212242266898</v>
+        <v>2.256155999554437</v>
       </c>
       <c r="C8">
-        <v>0.6296428808531118</v>
+        <v>0.7356206572507631</v>
       </c>
       <c r="D8">
-        <v>0.02474791499603235</v>
+        <v>0.02956660065870764</v>
       </c>
       <c r="E8">
-        <v>0.2424339192244318</v>
+        <v>0.2335753120649287</v>
       </c>
       <c r="F8">
-        <v>1.046546205023105</v>
+        <v>0.8479926103227058</v>
       </c>
       <c r="G8">
-        <v>1.000977881963891</v>
+        <v>0.7733432809215515</v>
       </c>
       <c r="H8">
-        <v>0.0005993277521996188</v>
+        <v>0.0005934954741715348</v>
       </c>
       <c r="I8">
-        <v>0.001403662196361566</v>
+        <v>0.001689847509550368</v>
       </c>
       <c r="J8">
-        <v>0.6252082012716045</v>
+        <v>0.5344475578011725</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2129517008370954</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.108312587823729</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8949553344282037</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9183981651768178</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.035583252809658</v>
+        <v>3.012559701667499</v>
       </c>
       <c r="C9">
-        <v>0.8202023169033623</v>
+        <v>0.9843442764360475</v>
       </c>
       <c r="D9">
-        <v>0.02611600825077787</v>
+        <v>0.03438862906341811</v>
       </c>
       <c r="E9">
-        <v>0.3201206132385082</v>
+        <v>0.304053783830085</v>
       </c>
       <c r="F9">
-        <v>1.31863146367796</v>
+        <v>1.035307360415814</v>
       </c>
       <c r="G9">
-        <v>1.269471130665977</v>
+        <v>0.9516288288542967</v>
       </c>
       <c r="H9">
-        <v>0.004132253658225338</v>
+        <v>0.003789407505596976</v>
       </c>
       <c r="I9">
-        <v>0.006005556981839355</v>
+        <v>0.005513096375969972</v>
       </c>
       <c r="J9">
-        <v>0.7401951201712507</v>
+        <v>0.6035385236956614</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2078560815703341</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1366357542496353</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.200484699998896</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.233430927158338</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.622136797117321</v>
+        <v>3.587181717592784</v>
       </c>
       <c r="C10">
-        <v>0.9709725251682926</v>
+        <v>1.172757237727069</v>
       </c>
       <c r="D10">
-        <v>0.02775649607028541</v>
+        <v>0.0399136844291732</v>
       </c>
       <c r="E10">
-        <v>0.3507945806063404</v>
+        <v>0.3300383158194364</v>
       </c>
       <c r="F10">
-        <v>1.487558004475304</v>
+        <v>1.133642724586181</v>
       </c>
       <c r="G10">
-        <v>1.429873979052815</v>
+        <v>1.073707294995216</v>
       </c>
       <c r="H10">
-        <v>0.008288689673320526</v>
+        <v>0.007464705876839339</v>
       </c>
       <c r="I10">
-        <v>0.01194417892704713</v>
+        <v>0.01020600130648841</v>
       </c>
       <c r="J10">
-        <v>0.8063420850166665</v>
+        <v>0.5961304126935119</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1951013133964921</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1518093317139382</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.391410893289404</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.429228156173181</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.052416398157106</v>
+        <v>4.015841159210424</v>
       </c>
       <c r="C11">
-        <v>1.094880569391847</v>
+        <v>1.278845850189043</v>
       </c>
       <c r="D11">
-        <v>0.03701413306712809</v>
+        <v>0.05596625030055691</v>
       </c>
       <c r="E11">
-        <v>0.1788533941852215</v>
+        <v>0.1639630941665686</v>
       </c>
       <c r="F11">
-        <v>1.282338907650001</v>
+        <v>0.9546814607924148</v>
       </c>
       <c r="G11">
-        <v>1.183039464549125</v>
+        <v>0.9308246890278866</v>
       </c>
       <c r="H11">
-        <v>0.02612556666982258</v>
+        <v>0.02523458749986673</v>
       </c>
       <c r="I11">
-        <v>0.01454887540792793</v>
+        <v>0.01236705966602969</v>
       </c>
       <c r="J11">
-        <v>0.6747856099855767</v>
+        <v>0.4271092924860085</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.148222433085536</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.110217509761231</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.17729691848912</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.206596698105514</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.301438959335258</v>
+        <v>4.266132936819986</v>
       </c>
       <c r="C12">
-        <v>1.165004368354943</v>
+        <v>1.325414117702337</v>
       </c>
       <c r="D12">
-        <v>0.04773787790394834</v>
+        <v>0.070374079510934</v>
       </c>
       <c r="E12">
-        <v>0.09430484319388377</v>
+        <v>0.08402537048529624</v>
       </c>
       <c r="F12">
-        <v>1.096770716682713</v>
+        <v>0.8112601010945895</v>
       </c>
       <c r="G12">
-        <v>0.9722006181251714</v>
+        <v>0.7929195410526404</v>
       </c>
       <c r="H12">
-        <v>0.0638808347048041</v>
+        <v>0.06302956891840239</v>
       </c>
       <c r="I12">
-        <v>0.015123927912434</v>
+        <v>0.0127952822031272</v>
       </c>
       <c r="J12">
-        <v>0.5650007540851334</v>
+        <v>0.3317338519644863</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1205812729798232</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08052291250243471</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9731815182277188</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9956104024970358</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.42164731173591</v>
+        <v>4.390187267381293</v>
       </c>
       <c r="C13">
-        <v>1.203003356603858</v>
+        <v>1.335890340691662</v>
       </c>
       <c r="D13">
-        <v>0.06016448676545849</v>
+        <v>0.08319358704969915</v>
       </c>
       <c r="E13">
-        <v>0.07060873005325075</v>
+        <v>0.06430184598342148</v>
       </c>
       <c r="F13">
-        <v>0.9055094688265939</v>
+        <v>0.6817611580076886</v>
       </c>
       <c r="G13">
-        <v>0.7653319464224069</v>
+        <v>0.6382594671888739</v>
       </c>
       <c r="H13">
-        <v>0.1184852466008266</v>
+        <v>0.1177581820471829</v>
       </c>
       <c r="I13">
-        <v>0.01435040405318944</v>
+        <v>0.01222877366403274</v>
       </c>
       <c r="J13">
-        <v>0.4596218383634607</v>
+        <v>0.2815249510113347</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1023930506020054</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05671965038759907</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7676929059116375</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7840642255419397</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.447199733030914</v>
+        <v>4.419565578638583</v>
       </c>
       <c r="C14">
-        <v>1.216529809773363</v>
+        <v>1.328157616628573</v>
       </c>
       <c r="D14">
-        <v>0.07005416692532407</v>
+        <v>0.09147132321749751</v>
       </c>
       <c r="E14">
-        <v>0.08988830471598774</v>
+        <v>0.08588462907961691</v>
       </c>
       <c r="F14">
-        <v>0.7704300071484766</v>
+        <v>0.5959523470438839</v>
       </c>
       <c r="G14">
-        <v>0.6245031176587048</v>
+        <v>0.5256807826696814</v>
       </c>
       <c r="H14">
-        <v>0.1669992682836039</v>
+        <v>0.1663832474854843</v>
       </c>
       <c r="I14">
-        <v>0.01331646295408095</v>
+        <v>0.01149571997603083</v>
       </c>
       <c r="J14">
-        <v>0.3887924287097064</v>
+        <v>0.2612020447162777</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09318442851546394</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04278767156418617</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6273268122380316</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6398456736343334</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.424155134565524</v>
+        <v>4.39801242103016</v>
       </c>
       <c r="C15">
-        <v>1.214221320326203</v>
+        <v>1.319950764389091</v>
       </c>
       <c r="D15">
-        <v>0.07252423506663774</v>
+        <v>0.09289026275001078</v>
       </c>
       <c r="E15">
-        <v>0.09882930675538404</v>
+        <v>0.09540607002644919</v>
       </c>
       <c r="F15">
-        <v>0.7331127663652239</v>
+        <v>0.5743964173326646</v>
       </c>
       <c r="G15">
-        <v>0.5869407571106535</v>
+        <v>0.49324344141165</v>
       </c>
       <c r="H15">
-        <v>0.1791889305527263</v>
+        <v>0.1786192561467317</v>
       </c>
       <c r="I15">
-        <v>0.01287046350086651</v>
+        <v>0.01121849008309894</v>
       </c>
       <c r="J15">
-        <v>0.3704470915139098</v>
+        <v>0.2610546319575846</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09165424170275926</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03966332886868607</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5911185101848844</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6027091359942887</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.140194855939683</v>
+        <v>4.11894163659224</v>
       </c>
       <c r="C16">
-        <v>1.141986052663867</v>
+        <v>1.243025124512144</v>
       </c>
       <c r="D16">
-        <v>0.06895357989014173</v>
+        <v>0.08464335524877242</v>
       </c>
       <c r="E16">
-        <v>0.09174315905379515</v>
+        <v>0.08931339295554608</v>
       </c>
       <c r="F16">
-        <v>0.6995887769375457</v>
+        <v>0.5740292494102945</v>
       </c>
       <c r="G16">
-        <v>0.5606027482834577</v>
+        <v>0.4537279777671728</v>
       </c>
       <c r="H16">
-        <v>0.1650666493844852</v>
+        <v>0.1646908467037775</v>
       </c>
       <c r="I16">
-        <v>0.01028994596409305</v>
+        <v>0.009320605422248107</v>
       </c>
       <c r="J16">
-        <v>0.3632109414028122</v>
+        <v>0.3086342195205134</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09844816121526812</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04157643272876044</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5585372649510347</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5699375324712364</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.909819323894396</v>
+        <v>3.890158272372503</v>
       </c>
       <c r="C17">
-        <v>1.079749649866642</v>
+        <v>1.187563570908196</v>
       </c>
       <c r="D17">
-        <v>0.06076320634452514</v>
+        <v>0.07464844767240919</v>
       </c>
       <c r="E17">
-        <v>0.07010500732459768</v>
+        <v>0.06731064902713868</v>
       </c>
       <c r="F17">
-        <v>0.7436351494454243</v>
+        <v>0.6169516609856487</v>
       </c>
       <c r="G17">
-        <v>0.6124474374490774</v>
+        <v>0.4830182028768064</v>
       </c>
       <c r="H17">
-        <v>0.1266577667594362</v>
+        <v>0.1263645405309717</v>
       </c>
       <c r="I17">
-        <v>0.008963834174007701</v>
+        <v>0.008324123135053263</v>
       </c>
       <c r="J17">
-        <v>0.3940549914833014</v>
+        <v>0.3551127294674927</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1092397042208244</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04980504005253295</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6052176381557217</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6183880834668187</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.702549216540376</v>
+        <v>3.681949386893052</v>
       </c>
       <c r="C18">
-        <v>1.016553270597313</v>
+        <v>1.142351454421771</v>
       </c>
       <c r="D18">
-        <v>0.04890072244763388</v>
+        <v>0.06212789394947293</v>
       </c>
       <c r="E18">
-        <v>0.06514428904046321</v>
+        <v>0.0602814703275989</v>
       </c>
       <c r="F18">
-        <v>0.8704006577082168</v>
+        <v>0.7146280269175804</v>
       </c>
       <c r="G18">
-        <v>0.7519276731281224</v>
+        <v>0.5794297017478982</v>
       </c>
       <c r="H18">
-        <v>0.07388649882307163</v>
+        <v>0.07360424831486512</v>
       </c>
       <c r="I18">
-        <v>0.008212382605720769</v>
+        <v>0.007641304000649107</v>
       </c>
       <c r="J18">
-        <v>0.4682318368869716</v>
+        <v>0.4198850195250685</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1281392808448238</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06761072113446787</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7345034412383171</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7519570453870372</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.531607081800985</v>
+        <v>3.508295531786359</v>
       </c>
       <c r="C19">
-        <v>0.9675128224553191</v>
+        <v>1.117674672309249</v>
       </c>
       <c r="D19">
-        <v>0.03790371175126239</v>
+        <v>0.05040477015568712</v>
       </c>
       <c r="E19">
-        <v>0.1213793980064821</v>
+        <v>0.1123471260771609</v>
       </c>
       <c r="F19">
-        <v>1.056467812829766</v>
+        <v>0.85076285412012</v>
       </c>
       <c r="G19">
-        <v>0.9578310461534443</v>
+        <v>0.7237314400497041</v>
       </c>
       <c r="H19">
-        <v>0.02952212101690321</v>
+        <v>0.02918056859049045</v>
       </c>
       <c r="I19">
-        <v>0.008464097161923867</v>
+        <v>0.007868704281232652</v>
       </c>
       <c r="J19">
-        <v>0.5743381277464294</v>
+        <v>0.4990972532735185</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1537600462386592</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09373735306935416</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9378779695586559</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9618431324438959</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.466731823407713</v>
+        <v>3.435464937969471</v>
       </c>
       <c r="C20">
-        <v>0.9435852794307493</v>
+        <v>1.137183376304506</v>
       </c>
       <c r="D20">
-        <v>0.02774694995008886</v>
+        <v>0.03869938779079263</v>
       </c>
       <c r="E20">
-        <v>0.3404805230729124</v>
+        <v>0.3212488359259211</v>
       </c>
       <c r="F20">
-        <v>1.420819731140355</v>
+        <v>1.101313989999738</v>
       </c>
       <c r="G20">
-        <v>1.362250206242351</v>
+        <v>1.012794566519588</v>
       </c>
       <c r="H20">
-        <v>0.007022908041605547</v>
+        <v>0.006365303035897885</v>
       </c>
       <c r="I20">
-        <v>0.01080198710796232</v>
+        <v>0.009657631477407058</v>
       </c>
       <c r="J20">
-        <v>0.7760179555731384</v>
+        <v>0.6156123664679995</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1962971270569334</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1453687315104233</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.342018818972846</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.378591907095654</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.890692741049691</v>
+        <v>3.848141449746208</v>
       </c>
       <c r="C21">
-        <v>1.05022166416731</v>
+        <v>1.267344218945652</v>
       </c>
       <c r="D21">
-        <v>0.02791453866692706</v>
+        <v>0.04383266057682533</v>
       </c>
       <c r="E21">
-        <v>0.4064624465864597</v>
+        <v>0.3816928103874488</v>
       </c>
       <c r="F21">
-        <v>1.607388176543765</v>
+        <v>1.163281959914656</v>
       </c>
       <c r="G21">
-        <v>1.550018791976072</v>
+        <v>1.206650475347601</v>
       </c>
       <c r="H21">
-        <v>0.01117762319854756</v>
+        <v>0.00991651160274753</v>
       </c>
       <c r="I21">
-        <v>0.01636380647064861</v>
+        <v>0.01372416032837087</v>
       </c>
       <c r="J21">
-        <v>0.8595076018385441</v>
+        <v>0.4994728853499453</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1851917689084246</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1557381378525839</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.545347444616226</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.58539523318818</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.178885216850801</v>
+        <v>4.128499042677561</v>
       </c>
       <c r="C22">
-        <v>1.118441488332081</v>
+        <v>1.348593172867083</v>
       </c>
       <c r="D22">
-        <v>0.02819135563126451</v>
+        <v>0.04787314663001752</v>
       </c>
       <c r="E22">
-        <v>0.4365681257459855</v>
+        <v>0.4085432569616643</v>
       </c>
       <c r="F22">
-        <v>1.722953022817123</v>
+        <v>1.194838570456255</v>
       </c>
       <c r="G22">
-        <v>1.665137319270343</v>
+        <v>1.33587618906742</v>
       </c>
       <c r="H22">
-        <v>0.01422730858033427</v>
+        <v>0.01249878838070706</v>
       </c>
       <c r="I22">
-        <v>0.0203441217110738</v>
+        <v>0.0164456617801374</v>
       </c>
       <c r="J22">
-        <v>0.9102678393377914</v>
+        <v>0.4221388667785675</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1767413203804082</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1611642513731297</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.659501172875167</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.701031346177885</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.025666332141441</v>
+        <v>3.979454492427976</v>
       </c>
       <c r="C23">
-        <v>1.077270664606402</v>
+        <v>1.301991006545848</v>
       </c>
       <c r="D23">
-        <v>0.02790102570469344</v>
+        <v>0.04502143506777401</v>
       </c>
       <c r="E23">
-        <v>0.420882378090397</v>
+        <v>0.3945366909561017</v>
       </c>
       <c r="F23">
-        <v>1.669014701196602</v>
+        <v>1.191043170887568</v>
       </c>
       <c r="G23">
-        <v>1.61259833938405</v>
+        <v>1.265474756958213</v>
       </c>
       <c r="H23">
-        <v>0.01256945015844774</v>
+        <v>0.01110778987251049</v>
       </c>
       <c r="I23">
-        <v>0.01793123089351756</v>
+        <v>0.01467632663320995</v>
       </c>
       <c r="J23">
-        <v>0.8876810090193032</v>
+        <v>0.4813561531086776</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1837741051621862</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1613412202199029</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.597583120025391</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.638736544819679</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.44662091638105</v>
+        <v>3.4149672075784</v>
       </c>
       <c r="C24">
-        <v>0.9306167326664934</v>
+        <v>1.126283904287874</v>
       </c>
       <c r="D24">
-        <v>0.02700284504029327</v>
+        <v>0.03743162992571669</v>
       </c>
       <c r="E24">
-        <v>0.3614401597752064</v>
+        <v>0.3413776823712098</v>
       </c>
       <c r="F24">
-        <v>1.455575407463883</v>
+        <v>1.126987327672282</v>
       </c>
       <c r="G24">
-        <v>1.402446778340078</v>
+        <v>1.040819307135479</v>
       </c>
       <c r="H24">
-        <v>0.007136839233527814</v>
+        <v>0.006462576092390093</v>
       </c>
       <c r="I24">
-        <v>0.01041972960796844</v>
+        <v>0.009158529503193513</v>
       </c>
       <c r="J24">
-        <v>0.796525865208082</v>
+        <v>0.6315295286832452</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2023364245098414</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1515841124060202</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.366082262541653</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.403687312822967</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.825799678875057</v>
+        <v>2.807054454411343</v>
       </c>
       <c r="C25">
-        <v>0.7750807094896857</v>
+        <v>0.9239690821676447</v>
       </c>
       <c r="D25">
-        <v>0.0259620149102151</v>
+        <v>0.03326435567643315</v>
       </c>
       <c r="E25">
-        <v>0.2983777471558895</v>
+        <v>0.2844458919823722</v>
       </c>
       <c r="F25">
-        <v>1.232264142606212</v>
+        <v>0.9792200270596254</v>
       </c>
       <c r="G25">
-        <v>1.182439829680902</v>
+        <v>0.8887310079109341</v>
       </c>
       <c r="H25">
-        <v>0.002882265373628234</v>
+        <v>0.002674733781708349</v>
       </c>
       <c r="I25">
-        <v>0.004691469000716708</v>
+        <v>0.004618274739028649</v>
       </c>
       <c r="J25">
-        <v>0.7017195085780088</v>
+        <v>0.5907378215026284</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2077733512412863</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1268207777793648</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.118850035842755</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.149229797699817</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
